--- a/biology/Histoire de la zoologie et de la botanique/Constantin_Arnoldi/Constantin_Arnoldi.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Constantin_Arnoldi/Constantin_Arnoldi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Constantin Vladimirovitch Arnoldi (Константин Владимирович Арнольди), né le 4 octobre 1901 à Moscou et mort en 1982, est un entomologiste russe et soviétique, fondateur de la myrmécologie soviétique et des symposiums « Les Fourmis et la Protection de la forêt » qui se tinrent à l'époque de l'URSS.
 </t>
@@ -511,7 +523,9 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Constantin Arnoldi est le fils du fameux botaniste Vladimir Arnoldi (1871-1924) et le petit-fils, par sa mère, du professeur Ivan Gorojankine (1848-1904). Son frère, Lev Vladimirovich Arnoldi (d) (1903-1980), deviendra également entomologiste.
 Il entre à la fin de la guerre civile russe, en 1921, au département des sciences biologique de l'université de Moscou dont il sort en 1926 avec les félicitations du jury pour sa thèse de troisième cycle portant sur les fourmis du genre Cardiocondyla. Il devient membre de la Société entomologique de l'Union soviétique en 1934 et de la Société des naturalistes de Moscou en 1937.
@@ -545,7 +559,9 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Il découvre et définit des dizaines de nouvelles espèces de fourmis, comme Aenictus dlusskyi (en 1968) ou Myrmica karavajevi (en 1930) et il révise les genres Cardiocondyla, Aphaenogaster, Stenamma, Messor, Myrmica, Leptothorax, Camponotus et Cataglyphis. Il donne aussi les caractéristiques générales de la forêt steppique, comme entité zonale (1965, 1968) et il est l'un des fondateurs de la méthode d'utilisation des entomocomplexes de différentes biocénoses pour caractériser ces dernières. Il apporte une contribution significative au développement de la zoologie de terrain en URSS.
 (de) Studien über die Variabilität der Ameisen. I. Die ökologische und die Familienvariabilität von Cardiocondyla stambulowi For. // Z. Morphol. Ökol. Tiere. — 1926. — Т. 7. — p. 254–278.
@@ -585,7 +601,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(ru) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en russe intitulé « Арнольди, Константин Владимирович » (voir la liste des auteurs).</t>
         </is>
